--- a/T6.xlsx
+++ b/T6.xlsx
@@ -5,25 +5,34 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\Project Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\singhalpriyank\ProjectF13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="25725" windowHeight="15795" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="25725" windowHeight="15795" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Sheet1 (2)'!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
   <si>
     <t>Data</t>
   </si>
@@ -86,6 +95,33 @@
   </si>
   <si>
     <t>z Critical two-tail</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
   </si>
 </sst>
 </file>
@@ -617,11 +653,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-704424416"/>
-        <c:axId val="-704421152"/>
+        <c:axId val="1224903184"/>
+        <c:axId val="1224907536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-704424416"/>
+        <c:axId val="1224903184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-704421152"/>
+        <c:crossAx val="1224907536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-704421152"/>
+        <c:axId val="1224907536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-704424416"/>
+        <c:crossAx val="1224903184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1706,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -2114,9 +2150,438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>AVERAGE(B3:B5)</f>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="0">AVERAGE(C3:C5)</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14.333333333333314</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10.333333333333343</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>14.333333333333314</v>
+      </c>
+      <c r="L7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.95863431241335928</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.92447345164190509</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8.5000000000000142</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
+        <v>13.984685501341463</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6.7799747921894367E-3</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.5371675154584549E-3</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.3559949584378873E-2</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5.0743350309169098E-3</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10.333333333333343</v>
+      </c>
+      <c r="H23" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.77771377104781902</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5.5470019622522937</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.5498416888490758E-2</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3.0996833776981515E-2</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
